--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H2">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N2">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q2">
-        <v>0.4981734446134343</v>
+        <v>1.080583078485333</v>
       </c>
       <c r="R2">
-        <v>0.4981734446134343</v>
+        <v>9.725247706368</v>
       </c>
       <c r="S2">
-        <v>0.01999788520897416</v>
+        <v>0.02472411860473329</v>
       </c>
       <c r="T2">
-        <v>0.01999788520897416</v>
+        <v>0.02472411860473329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H3">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q3">
-        <v>2.078542734471836</v>
+        <v>4.198713611356444</v>
       </c>
       <c r="R3">
-        <v>2.078542734471836</v>
+        <v>37.788422502208</v>
       </c>
       <c r="S3">
-        <v>0.08343772526488079</v>
+        <v>0.09606803528701915</v>
       </c>
       <c r="T3">
-        <v>0.08343772526488079</v>
+        <v>0.09606803528701914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H4">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N4">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q4">
-        <v>0.9277581269751934</v>
+        <v>1.772109967783111</v>
       </c>
       <c r="R4">
-        <v>0.9277581269751934</v>
+        <v>15.948989710048</v>
       </c>
       <c r="S4">
-        <v>0.03724245185196381</v>
+        <v>0.04054649558783964</v>
       </c>
       <c r="T4">
-        <v>0.03724245185196381</v>
+        <v>0.04054649558783963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H5">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I5">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J5">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N5">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q5">
-        <v>1.676842592989778</v>
+        <v>3.964207696336</v>
       </c>
       <c r="R5">
-        <v>1.676842592989778</v>
+        <v>35.67786926702399</v>
       </c>
       <c r="S5">
-        <v>0.06731251143695319</v>
+        <v>0.09070245796870316</v>
       </c>
       <c r="T5">
-        <v>0.06731251143695319</v>
+        <v>0.09070245796870313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H6">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I6">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J6">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N6">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q6">
-        <v>3.684405389064463</v>
+        <v>7.371126618023111</v>
       </c>
       <c r="R6">
-        <v>3.684405389064463</v>
+        <v>66.34013956220799</v>
       </c>
       <c r="S6">
-        <v>0.1479009305504237</v>
+        <v>0.1686539539467567</v>
       </c>
       <c r="T6">
-        <v>0.1479009305504237</v>
+        <v>0.1686539539467567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H7">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I7">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J7">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N7">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q7">
-        <v>0.9043331536518273</v>
+        <v>1.929956488328889</v>
       </c>
       <c r="R7">
-        <v>0.9043331536518273</v>
+        <v>17.36960839496</v>
       </c>
       <c r="S7">
-        <v>0.03630211684894602</v>
+        <v>0.04415807916065351</v>
       </c>
       <c r="T7">
-        <v>0.03630211684894602</v>
+        <v>0.04415807916065351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H8">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J8">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N8">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q8">
-        <v>0.5059143930241864</v>
+        <v>0.6941457868906667</v>
       </c>
       <c r="R8">
-        <v>0.5059143930241864</v>
+        <v>6.247312082016</v>
       </c>
       <c r="S8">
-        <v>0.02030862557340071</v>
+        <v>0.01588229827559132</v>
       </c>
       <c r="T8">
-        <v>0.02030862557340071</v>
+        <v>0.01588229827559132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H9">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J9">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q9">
-        <v>2.110840505962999</v>
+        <v>2.697172870566222</v>
       </c>
       <c r="R9">
-        <v>2.110840505962999</v>
+        <v>24.274555835096</v>
       </c>
       <c r="S9">
-        <v>0.08473423581511121</v>
+        <v>0.06171225820306362</v>
       </c>
       <c r="T9">
-        <v>0.08473423581511121</v>
+        <v>0.06171225820306361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H10">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J10">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N10">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q10">
-        <v>0.9421742462529756</v>
+        <v>1.138369360519556</v>
       </c>
       <c r="R10">
-        <v>0.9421742462529756</v>
+        <v>10.245324244676</v>
       </c>
       <c r="S10">
-        <v>0.03782114969624508</v>
+        <v>0.02604628893960781</v>
       </c>
       <c r="T10">
-        <v>0.03782114969624508</v>
+        <v>0.0260462889396078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H11">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J11">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N11">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q11">
-        <v>1.702898482049376</v>
+        <v>2.546530780982</v>
       </c>
       <c r="R11">
-        <v>1.702898482049376</v>
+        <v>22.918777028838</v>
       </c>
       <c r="S11">
-        <v>0.06835845775156643</v>
+        <v>0.05826551452930016</v>
       </c>
       <c r="T11">
-        <v>0.06835845775156643</v>
+        <v>0.05826551452930014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H12">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I12">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J12">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N12">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q12">
-        <v>3.741656116395335</v>
+        <v>4.735069971399556</v>
       </c>
       <c r="R12">
-        <v>3.741656116395335</v>
+        <v>42.615629742596</v>
       </c>
       <c r="S12">
-        <v>0.1501991130121193</v>
+        <v>0.1083400563135717</v>
       </c>
       <c r="T12">
-        <v>0.1501991130121193</v>
+        <v>0.1083400563135717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H13">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I13">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J13">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N13">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q13">
-        <v>0.9183852802038228</v>
+        <v>1.239766929474444</v>
       </c>
       <c r="R13">
-        <v>0.9183852802038228</v>
+        <v>11.15790236527</v>
       </c>
       <c r="S13">
-        <v>0.03686620314613281</v>
+        <v>0.02836630076561783</v>
       </c>
       <c r="T13">
-        <v>0.03686620314613281</v>
+        <v>0.02836630076561783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H14">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I14">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J14">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N14">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q14">
-        <v>0.2661353830696794</v>
+        <v>0.5498398730293333</v>
       </c>
       <c r="R14">
-        <v>0.2661353830696794</v>
+        <v>4.948558857264</v>
       </c>
       <c r="S14">
-        <v>0.01068331702185293</v>
+        <v>0.01258052851747784</v>
       </c>
       <c r="T14">
-        <v>0.01068331702185293</v>
+        <v>0.01258052851747784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H15">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I15">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J15">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q15">
-        <v>1.110403962408324</v>
+        <v>2.136457811453778</v>
       </c>
       <c r="R15">
-        <v>1.110403962408324</v>
+        <v>19.228120303084</v>
       </c>
       <c r="S15">
-        <v>0.0445742967954918</v>
+        <v>0.04888290162606788</v>
       </c>
       <c r="T15">
-        <v>0.0445742967954918</v>
+        <v>0.04888290162606786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H16">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I16">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J16">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N16">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q16">
-        <v>0.4956291171042739</v>
+        <v>0.9017138423504445</v>
       </c>
       <c r="R16">
-        <v>0.4956291171042739</v>
+        <v>8.115424581154</v>
       </c>
       <c r="S16">
-        <v>0.01989574975793319</v>
+        <v>0.02063152794975474</v>
       </c>
       <c r="T16">
-        <v>0.01989574975793319</v>
+        <v>0.02063152794975473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H17">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I17">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J17">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N17">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q17">
-        <v>0.895806773039011</v>
+        <v>2.017132694203</v>
       </c>
       <c r="R17">
-        <v>0.895806773039011</v>
+        <v>18.154194247827</v>
       </c>
       <c r="S17">
-        <v>0.03595984733902577</v>
+        <v>0.0461527012276244</v>
       </c>
       <c r="T17">
-        <v>0.03595984733902577</v>
+        <v>0.04615270122762438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H18">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I18">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J18">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N18">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q18">
-        <v>1.968291666697602</v>
+        <v>3.750696641870444</v>
       </c>
       <c r="R18">
-        <v>1.968291666697602</v>
+        <v>33.756269776834</v>
       </c>
       <c r="S18">
-        <v>0.07901198113629358</v>
+        <v>0.0858172503996308</v>
       </c>
       <c r="T18">
-        <v>0.07901198113629358</v>
+        <v>0.08581725039963078</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H19">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I19">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J19">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N19">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O19">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P19">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q19">
-        <v>0.4831149730521986</v>
+        <v>0.9820318785505556</v>
       </c>
       <c r="R19">
-        <v>0.4831149730521986</v>
+        <v>8.838286906955</v>
       </c>
       <c r="S19">
-        <v>0.01939340179268555</v>
+        <v>0.0224692326969865</v>
       </c>
       <c r="T19">
-        <v>0.01939340179268555</v>
+        <v>0.0224692326969865</v>
       </c>
     </row>
   </sheetData>
